--- a/外注管理/020_外注伝票作成/system/外注基本設計図.xlsx
+++ b/外注管理/020_外注伝票作成/system/外注基本設計図.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\_開発\0100_外注伝票作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub_ShimodaPrint\外注管理\020_外注伝票作成\system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D88111-E1F6-461B-BEAC-849DED4C4866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1D684-7D49-4BA6-9198-5A7631696B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59115" yWindow="4095" windowWidth="16200" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="情報引用▼" sheetId="4" r:id="rId4"/>
+    <sheet name="20240226表ショートカット用" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="365">
   <si>
     <t>###</t>
   </si>
@@ -1290,12 +1291,185 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>外注_新規作成ID用.TBX</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[作業ID]</t>
+  </si>
+  <si>
+    <t>[外注宛先]</t>
+  </si>
+  <si>
+    <t>[カテゴライズ]</t>
+  </si>
+  <si>
+    <t>[外注区分]</t>
+  </si>
+  <si>
+    <t>[内容]</t>
+  </si>
+  <si>
+    <t>[外注先]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[外注規格]</t>
+  </si>
+  <si>
+    <t>[データ]</t>
+  </si>
+  <si>
+    <t>[用紙出し]</t>
+  </si>
+  <si>
+    <t>表引き情報</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回作業情報.tbx</t>
+  </si>
+  <si>
+    <t>表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>封筒手配確認用.tbx</t>
+  </si>
+  <si>
+    <t>用紙名称</t>
+  </si>
+  <si>
+    <t>依頼to納品先</t>
+  </si>
+  <si>
+    <t>作業ID</t>
+  </si>
+  <si>
+    <t>区分</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>宛先</t>
+  </si>
+  <si>
+    <t>\Option\tbx\050_04_外注用紙だし.tbx</t>
+  </si>
+  <si>
+    <t>用紙だし</t>
+  </si>
+  <si>
+    <t>\Option\tbx\050_05_外注データ.tbx</t>
+  </si>
+  <si>
+    <t>データ</t>
+  </si>
+  <si>
+    <t>\Option\tbx\050_02_外注用規格.tbx</t>
+  </si>
+  <si>
+    <t>ReturnS</t>
+  </si>
+  <si>
+    <t>\Option\tbx\050_06_外注先名.tbx</t>
+  </si>
+  <si>
+    <t>結合</t>
+  </si>
+  <si>
+    <t>外注先名</t>
+  </si>
+  <si>
+    <t>\Option\tbx\050_08_外注カテゴライズ.tbx</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>\Option\tbx\050_03_外注宛先.tbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14-1_外注宛先.wfx</t>
+  </si>
+  <si>
+    <t>\Option\tbx\050_01_外注区分.tbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14-2_外注区分.wfx</t>
+  </si>
+  <si>
+    <t>\Option\tbx\050_07_外注内容.tbx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑結果tbxフォルダに全部移行させた。（相対パスを桐のテーブル内に設定できなかったため）</t>
+    <rPh sb="1" eb="3">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,8 +1509,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1391,6 +1572,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1404,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1421,6 +1620,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1703,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4281,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39649700-D142-4B6C-BFFF-DE71F302F9B2}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8232,7 +8435,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8768,4 +8971,233 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340051F3-CACC-4F11-8E77-A89CA80DA3B8}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="D15" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>